--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.72248126397537</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H2">
-        <v>6.72248126397537</v>
+        <v>0.252539</v>
       </c>
       <c r="I2">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J2">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N2">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P2">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q2">
-        <v>28.83621808472417</v>
+        <v>0.3695468285942222</v>
       </c>
       <c r="R2">
-        <v>28.83621808472417</v>
+        <v>3.325921457348</v>
       </c>
       <c r="S2">
-        <v>0.01624771009028623</v>
+        <v>0.0001248245143135781</v>
       </c>
       <c r="T2">
-        <v>0.01624771009028623</v>
+        <v>0.0001248245143135781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.72248126397537</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H3">
-        <v>6.72248126397537</v>
+        <v>0.252539</v>
       </c>
       <c r="I3">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J3">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N3">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P3">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q3">
-        <v>353.2935062705511</v>
+        <v>4.428564843377889</v>
       </c>
       <c r="R3">
-        <v>353.2935062705511</v>
+        <v>39.857083590401</v>
       </c>
       <c r="S3">
-        <v>0.1990625278876456</v>
+        <v>0.001495868487854951</v>
       </c>
       <c r="T3">
-        <v>0.1990625278876456</v>
+        <v>0.001495868487854951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,805 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.72248126397537</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H4">
-        <v>6.72248126397537</v>
+        <v>0.252539</v>
       </c>
       <c r="I4">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J4">
-        <v>0.3841682336282083</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N4">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P4">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q4">
-        <v>299.6869073157495</v>
+        <v>0.00854260869311111</v>
       </c>
       <c r="R4">
-        <v>299.6869073157495</v>
+        <v>0.076883478238</v>
       </c>
       <c r="S4">
-        <v>0.1688579956502765</v>
+        <v>2.885498937022176E-06</v>
       </c>
       <c r="T4">
-        <v>0.1688579956502765</v>
+        <v>2.885498937022177E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.91477572937697</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H5">
-        <v>1.91477572937697</v>
+        <v>0.252539</v>
       </c>
       <c r="I5">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J5">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N5">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P5">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q5">
-        <v>8.213468858818286</v>
+        <v>0.011178638835</v>
       </c>
       <c r="R5">
-        <v>8.213468858818286</v>
+        <v>0.100607749515</v>
       </c>
       <c r="S5">
-        <v>0.004627862796070615</v>
+        <v>3.775889969273555E-06</v>
       </c>
       <c r="T5">
-        <v>0.004627862796070615</v>
+        <v>3.775889969273555E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.91477572937697</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H6">
-        <v>1.91477572937697</v>
+        <v>0.252539</v>
       </c>
       <c r="I6">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J6">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N6">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P6">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q6">
-        <v>100.6291880318761</v>
+        <v>0.01644646207555555</v>
       </c>
       <c r="R6">
-        <v>100.6291880318761</v>
+        <v>0.14801815868</v>
       </c>
       <c r="S6">
-        <v>0.05669931712123348</v>
+        <v>5.55524085693642E-06</v>
       </c>
       <c r="T6">
-        <v>0.05669931712123348</v>
+        <v>5.555240856936422E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.91477572937697</v>
+        <v>0.08417966666666667</v>
       </c>
       <c r="H7">
-        <v>1.91477572937697</v>
+        <v>0.252539</v>
       </c>
       <c r="I7">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="J7">
-        <v>0.1094232889410712</v>
+        <v>0.0029512874256462</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N7">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P7">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q7">
-        <v>85.36032961747576</v>
+        <v>3.903098163332666</v>
       </c>
       <c r="R7">
-        <v>85.36032961747576</v>
+        <v>35.127883469994</v>
       </c>
       <c r="S7">
-        <v>0.04809610902376715</v>
+        <v>0.001318377793714439</v>
       </c>
       <c r="T7">
-        <v>0.04809610902376715</v>
+        <v>0.00131837779371444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.65780415786635</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H8">
-        <v>3.65780415786635</v>
+        <v>20.379326</v>
       </c>
       <c r="I8">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J8">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N8">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P8">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q8">
-        <v>15.69022422906248</v>
+        <v>29.82159306953688</v>
       </c>
       <c r="R8">
-        <v>15.69022422906248</v>
+        <v>268.394337625832</v>
       </c>
       <c r="S8">
-        <v>0.00884062583298466</v>
+        <v>0.01007305592398827</v>
       </c>
       <c r="T8">
-        <v>0.00884062583298466</v>
+        <v>0.01007305592398827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.65780415786635</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H9">
-        <v>3.65780415786635</v>
+        <v>20.379326</v>
       </c>
       <c r="I9">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J9">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N9">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P9">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q9">
-        <v>192.2323626409645</v>
+        <v>357.3751644511815</v>
       </c>
       <c r="R9">
-        <v>192.2323626409645</v>
+        <v>3216.376480060634</v>
       </c>
       <c r="S9">
-        <v>0.1083129448176747</v>
+        <v>0.1207132029790372</v>
       </c>
       <c r="T9">
-        <v>0.1083129448176747</v>
+        <v>0.1207132029790372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.65780415786635</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H10">
-        <v>3.65780415786635</v>
+        <v>20.379326</v>
       </c>
       <c r="I10">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J10">
-        <v>0.2090317707266398</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>44.5798055134375</v>
+        <v>0.1014806666666667</v>
       </c>
       <c r="N10">
-        <v>44.5798055134375</v>
+        <v>0.304442</v>
       </c>
       <c r="O10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511412</v>
       </c>
       <c r="P10">
-        <v>0.4395417967163169</v>
+        <v>0.0009777085457511414</v>
       </c>
       <c r="Q10">
-        <v>163.0641979639249</v>
+        <v>0.6893691962324443</v>
       </c>
       <c r="R10">
-        <v>163.0641979639249</v>
+        <v>6.204322766091999</v>
       </c>
       <c r="S10">
-        <v>0.09187820007598049</v>
+        <v>0.0002328532365703055</v>
       </c>
       <c r="T10">
-        <v>0.09187820007598049</v>
+        <v>0.0002328532365703056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.452766925915751</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H11">
-        <v>0.452766925915751</v>
+        <v>20.379326</v>
       </c>
       <c r="I11">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J11">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.28952003767605</v>
+        <v>0.132795</v>
       </c>
       <c r="N11">
-        <v>4.28952003767605</v>
+        <v>0.398385</v>
       </c>
       <c r="O11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593907</v>
       </c>
       <c r="P11">
-        <v>0.04229321601330135</v>
+        <v>0.001279404349593908</v>
       </c>
       <c r="Q11">
-        <v>1.942152801112602</v>
+        <v>0.9020908653899999</v>
       </c>
       <c r="R11">
-        <v>1.942152801112602</v>
+        <v>8.118817788509999</v>
       </c>
       <c r="S11">
-        <v>0.001094302157474362</v>
+        <v>0.0003047057786082773</v>
       </c>
       <c r="T11">
-        <v>0.001094302157474362</v>
+        <v>0.0003047057786082774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.452766925915751</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H12">
-        <v>0.452766925915751</v>
+        <v>20.379326</v>
       </c>
       <c r="I12">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J12">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>52.5540336071728</v>
+        <v>0.1953733333333333</v>
       </c>
       <c r="N12">
-        <v>52.5540336071728</v>
+        <v>0.58612</v>
       </c>
       <c r="O12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="P12">
-        <v>0.5181649872703817</v>
+        <v>0.001882311024220242</v>
       </c>
       <c r="Q12">
-        <v>23.7947282407927</v>
+        <v>1.327192283902222</v>
       </c>
       <c r="R12">
-        <v>23.7947282407927</v>
+        <v>11.94473055512</v>
       </c>
       <c r="S12">
-        <v>0.01340709260131275</v>
+        <v>0.0004482953699508854</v>
       </c>
       <c r="T12">
-        <v>0.01340709260131275</v>
+        <v>0.0004482953699508855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.452766925915751</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H13">
-        <v>0.452766925915751</v>
+        <v>20.379326</v>
       </c>
       <c r="I13">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739108</v>
       </c>
       <c r="J13">
-        <v>0.02587417701056834</v>
+        <v>0.2381622187739109</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.5798055134375</v>
+        <v>46.36628199999999</v>
       </c>
       <c r="N13">
-        <v>44.5798055134375</v>
+        <v>139.098846</v>
       </c>
       <c r="O13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160336</v>
       </c>
       <c r="P13">
-        <v>0.4395417967163169</v>
+        <v>0.4467127743160338</v>
       </c>
       <c r="Q13">
-        <v>20.18426150024115</v>
+        <v>314.9711920953106</v>
       </c>
       <c r="R13">
-        <v>20.18426150024115</v>
+        <v>2834.740728857796</v>
       </c>
       <c r="S13">
-        <v>0.01137278225178123</v>
+        <v>0.1063901054857559</v>
       </c>
       <c r="T13">
-        <v>0.01137278225178123</v>
+        <v>0.1063901054857559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.75096717849119</v>
+        <v>3.846036666666667</v>
       </c>
       <c r="H14">
-        <v>4.75096717849119</v>
+        <v>11.53811</v>
       </c>
       <c r="I14">
-        <v>0.2715025296935123</v>
+        <v>0.1348396840041446</v>
       </c>
       <c r="J14">
-        <v>0.2715025296935123</v>
+        <v>0.1348396840041446</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.28952003767605</v>
+        <v>4.389977333333333</v>
       </c>
       <c r="N14">
-        <v>4.28952003767605</v>
+        <v>13.169932</v>
       </c>
       <c r="O14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783071</v>
       </c>
       <c r="P14">
-        <v>0.04229321601330135</v>
+        <v>0.04229493651783072</v>
       </c>
       <c r="Q14">
-        <v>20.37936891047921</v>
+        <v>16.88401378983556</v>
       </c>
       <c r="R14">
-        <v>20.37936891047921</v>
+        <v>151.95612410852</v>
       </c>
       <c r="S14">
-        <v>0.01148271513648548</v>
+        <v>0.005703035875039651</v>
       </c>
       <c r="T14">
-        <v>0.01148271513648548</v>
+        <v>0.005703035875039651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.75096717849119</v>
+        <v>3.846036666666667</v>
       </c>
       <c r="H15">
-        <v>4.75096717849119</v>
+        <v>11.53811</v>
       </c>
       <c r="I15">
-        <v>0.2715025296935123</v>
+        <v>0.1348396840041446</v>
       </c>
       <c r="J15">
-        <v>0.2715025296935123</v>
+        <v>0.1348396840041446</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.5540336071728</v>
+        <v>52.60848633333333</v>
       </c>
       <c r="N15">
-        <v>52.5540336071728</v>
+        <v>157.825459</v>
       </c>
       <c r="O15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465702</v>
       </c>
       <c r="P15">
-        <v>0.5181649872703817</v>
+        <v>0.5068528652465704</v>
       </c>
       <c r="Q15">
-        <v>249.6824887650009</v>
+        <v>202.3341674158322</v>
       </c>
       <c r="R15">
-        <v>249.6824887650009</v>
+        <v>1821.00750674249</v>
       </c>
       <c r="S15">
-        <v>0.1406831048425152</v>
+        <v>0.06834388018644283</v>
       </c>
       <c r="T15">
-        <v>0.1406831048425152</v>
+        <v>0.06834388018644284</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.846036666666667</v>
+      </c>
+      <c r="H16">
+        <v>11.53811</v>
+      </c>
+      <c r="I16">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="J16">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.304442</v>
+      </c>
+      <c r="O16">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P16">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q16">
+        <v>0.3902983649577778</v>
+      </c>
+      <c r="R16">
+        <v>3.51268528462</v>
+      </c>
+      <c r="S16">
+        <v>0.0001318339113572356</v>
+      </c>
+      <c r="T16">
+        <v>0.0001318339113572357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.846036666666667</v>
+      </c>
+      <c r="H17">
+        <v>11.53811</v>
+      </c>
+      <c r="I17">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="J17">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.132795</v>
+      </c>
+      <c r="N17">
+        <v>0.398385</v>
+      </c>
+      <c r="O17">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P17">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q17">
+        <v>0.5107344391499999</v>
+      </c>
+      <c r="R17">
+        <v>4.59660995235</v>
+      </c>
+      <c r="S17">
+        <v>0.0001725144782127706</v>
+      </c>
+      <c r="T17">
+        <v>0.0001725144782127707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.846036666666667</v>
+      </c>
+      <c r="H18">
+        <v>11.53811</v>
+      </c>
+      <c r="I18">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="J18">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.58612</v>
+      </c>
+      <c r="O18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P18">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q18">
+        <v>0.7514130036888887</v>
+      </c>
+      <c r="R18">
+        <v>6.7627170332</v>
+      </c>
+      <c r="S18">
+        <v>0.0002538102237033752</v>
+      </c>
+      <c r="T18">
+        <v>0.0002538102237033753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.846036666666667</v>
+      </c>
+      <c r="H19">
+        <v>11.53811</v>
+      </c>
+      <c r="I19">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="J19">
+        <v>0.1348396840041446</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N19">
+        <v>139.098846</v>
+      </c>
+      <c r="O19">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P19">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q19">
+        <v>178.3264206690066</v>
+      </c>
+      <c r="R19">
+        <v>1604.93778602106</v>
+      </c>
+      <c r="S19">
+        <v>0.06023460932938874</v>
+      </c>
+      <c r="T19">
+        <v>0.06023460932938877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H20">
+        <v>13.994057</v>
+      </c>
+      <c r="I20">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J20">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N20">
+        <v>13.169932</v>
+      </c>
+      <c r="O20">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P20">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q20">
+        <v>20.47786434379156</v>
+      </c>
+      <c r="R20">
+        <v>184.300779094124</v>
+      </c>
+      <c r="S20">
+        <v>0.006916956859342626</v>
+      </c>
+      <c r="T20">
+        <v>0.006916956859342627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H21">
+        <v>13.994057</v>
+      </c>
+      <c r="I21">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J21">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N21">
+        <v>157.825459</v>
+      </c>
+      <c r="O21">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P21">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q21">
+        <v>245.4020521441292</v>
+      </c>
+      <c r="R21">
+        <v>2208.618469297163</v>
+      </c>
+      <c r="S21">
+        <v>0.08289123218016223</v>
+      </c>
+      <c r="T21">
+        <v>0.08289123218016224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H22">
+        <v>13.994057</v>
+      </c>
+      <c r="I22">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J22">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.304442</v>
+      </c>
+      <c r="O22">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P22">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q22">
+        <v>0.4733754112437777</v>
+      </c>
+      <c r="R22">
+        <v>4.260378701194</v>
+      </c>
+      <c r="S22">
+        <v>0.0001598954482203847</v>
+      </c>
+      <c r="T22">
+        <v>0.0001598954482203848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H23">
+        <v>13.994057</v>
+      </c>
+      <c r="I23">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J23">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.132795</v>
+      </c>
+      <c r="N23">
+        <v>0.398385</v>
+      </c>
+      <c r="O23">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P23">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q23">
+        <v>0.619446933105</v>
+      </c>
+      <c r="R23">
+        <v>5.575022397944999</v>
+      </c>
+      <c r="S23">
+        <v>0.0002092350862866423</v>
+      </c>
+      <c r="T23">
+        <v>0.0002092350862866424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.75096717849119</v>
-      </c>
-      <c r="H16">
-        <v>4.75096717849119</v>
-      </c>
-      <c r="I16">
-        <v>0.2715025296935123</v>
-      </c>
-      <c r="J16">
-        <v>0.2715025296935123</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="N16">
-        <v>44.5798055134375</v>
-      </c>
-      <c r="O16">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="P16">
-        <v>0.4395417967163169</v>
-      </c>
-      <c r="Q16">
-        <v>211.7971928178621</v>
-      </c>
-      <c r="R16">
-        <v>211.7971928178621</v>
-      </c>
-      <c r="S16">
-        <v>0.1193367097145116</v>
-      </c>
-      <c r="T16">
-        <v>0.1193367097145116</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H24">
+        <v>13.994057</v>
+      </c>
+      <c r="I24">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J24">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.58612</v>
+      </c>
+      <c r="O24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P24">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q24">
+        <v>0.9113551876488887</v>
+      </c>
+      <c r="R24">
+        <v>8.202196688839999</v>
+      </c>
+      <c r="S24">
+        <v>0.0003078350559743132</v>
+      </c>
+      <c r="T24">
+        <v>0.0003078350559743134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.664685666666666</v>
+      </c>
+      <c r="H25">
+        <v>13.994057</v>
+      </c>
+      <c r="I25">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="J25">
+        <v>0.1635410152803178</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N25">
+        <v>139.098846</v>
+      </c>
+      <c r="O25">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P25">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q25">
+        <v>216.2841310620246</v>
+      </c>
+      <c r="R25">
+        <v>1946.557179558222</v>
+      </c>
+      <c r="S25">
+        <v>0.07305586065033162</v>
+      </c>
+      <c r="T25">
+        <v>0.07305586065033165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.399628</v>
+      </c>
+      <c r="I26">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J26">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.169932</v>
+      </c>
+      <c r="O26">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P26">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q26">
+        <v>2.048111731699556</v>
+      </c>
+      <c r="R26">
+        <v>18.433005585296</v>
+      </c>
+      <c r="S26">
+        <v>0.0006918055639710488</v>
+      </c>
+      <c r="T26">
+        <v>0.0006918055639710489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.399628</v>
+      </c>
+      <c r="I27">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J27">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N27">
+        <v>157.825459</v>
+      </c>
+      <c r="O27">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P27">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q27">
+        <v>24.54410350325022</v>
+      </c>
+      <c r="R27">
+        <v>220.896931529252</v>
+      </c>
+      <c r="S27">
+        <v>0.008290439971328981</v>
+      </c>
+      <c r="T27">
+        <v>0.008290439971328983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.399628</v>
+      </c>
+      <c r="I28">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J28">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.304442</v>
+      </c>
+      <c r="O28">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P28">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q28">
+        <v>0.04734506084177778</v>
+      </c>
+      <c r="R28">
+        <v>0.426105547576</v>
+      </c>
+      <c r="S28">
+        <v>1.59920848115597E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.59920848115597E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.399628</v>
+      </c>
+      <c r="I29">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J29">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.132795</v>
+      </c>
+      <c r="N29">
+        <v>0.398385</v>
+      </c>
+      <c r="O29">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P29">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q29">
+        <v>0.06195453342000001</v>
+      </c>
+      <c r="R29">
+        <v>0.55759080078</v>
+      </c>
+      <c r="S29">
+        <v>2.092683239386553E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.092683239386553E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.399628</v>
+      </c>
+      <c r="I30">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J30">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.58612</v>
+      </c>
+      <c r="O30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P30">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q30">
+        <v>0.09114999592888889</v>
+      </c>
+      <c r="R30">
+        <v>0.82034996336</v>
+      </c>
+      <c r="S30">
+        <v>3.078839565418494E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.078839565418494E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4665426666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.399628</v>
+      </c>
+      <c r="I31">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="J31">
+        <v>0.01635669942853318</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N31">
+        <v>139.098846</v>
+      </c>
+      <c r="O31">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P31">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q31">
+        <v>21.63184884769867</v>
+      </c>
+      <c r="R31">
+        <v>194.686639629288</v>
+      </c>
+      <c r="S31">
+        <v>0.007306746580373539</v>
+      </c>
+      <c r="T31">
+        <v>0.007306746580373541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.668479</v>
+      </c>
+      <c r="H32">
+        <v>38.005437</v>
+      </c>
+      <c r="I32">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J32">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.389977333333333</v>
+      </c>
+      <c r="N32">
+        <v>13.169932</v>
+      </c>
+      <c r="O32">
+        <v>0.04229493651783071</v>
+      </c>
+      <c r="P32">
+        <v>0.04229493651783072</v>
+      </c>
+      <c r="Q32">
+        <v>55.61433565780933</v>
+      </c>
+      <c r="R32">
+        <v>500.529020920284</v>
+      </c>
+      <c r="S32">
+        <v>0.01878525778117554</v>
+      </c>
+      <c r="T32">
+        <v>0.01878525778117554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.668479</v>
+      </c>
+      <c r="H33">
+        <v>38.005437</v>
+      </c>
+      <c r="I33">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J33">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>52.60848633333333</v>
+      </c>
+      <c r="N33">
+        <v>157.825459</v>
+      </c>
+      <c r="O33">
+        <v>0.5068528652465702</v>
+      </c>
+      <c r="P33">
+        <v>0.5068528652465704</v>
+      </c>
+      <c r="Q33">
+        <v>666.4695043356203</v>
+      </c>
+      <c r="R33">
+        <v>5998.225539020583</v>
+      </c>
+      <c r="S33">
+        <v>0.225118241441744</v>
+      </c>
+      <c r="T33">
+        <v>0.2251182414417441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.668479</v>
+      </c>
+      <c r="H34">
+        <v>38.005437</v>
+      </c>
+      <c r="I34">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J34">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1014806666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.304442</v>
+      </c>
+      <c r="O34">
+        <v>0.0009777085457511412</v>
+      </c>
+      <c r="P34">
+        <v>0.0009777085457511414</v>
+      </c>
+      <c r="Q34">
+        <v>1.285605694572667</v>
+      </c>
+      <c r="R34">
+        <v>11.570451251154</v>
+      </c>
+      <c r="S34">
+        <v>0.0004342483658546334</v>
+      </c>
+      <c r="T34">
+        <v>0.0004342483658546335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.668479</v>
+      </c>
+      <c r="H35">
+        <v>38.005437</v>
+      </c>
+      <c r="I35">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J35">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.132795</v>
+      </c>
+      <c r="N35">
+        <v>0.398385</v>
+      </c>
+      <c r="O35">
+        <v>0.001279404349593907</v>
+      </c>
+      <c r="P35">
+        <v>0.001279404349593908</v>
+      </c>
+      <c r="Q35">
+        <v>1.682310668805</v>
+      </c>
+      <c r="R35">
+        <v>15.140796019245</v>
+      </c>
+      <c r="S35">
+        <v>0.000568246284123078</v>
+      </c>
+      <c r="T35">
+        <v>0.0005682462841230782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.668479</v>
+      </c>
+      <c r="H36">
+        <v>38.005437</v>
+      </c>
+      <c r="I36">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J36">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1953733333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.58612</v>
+      </c>
+      <c r="O36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="P36">
+        <v>0.001882311024220242</v>
+      </c>
+      <c r="Q36">
+        <v>2.475082970493333</v>
+      </c>
+      <c r="R36">
+        <v>22.27574673444</v>
+      </c>
+      <c r="S36">
+        <v>0.0008360267380805464</v>
+      </c>
+      <c r="T36">
+        <v>0.0008360267380805466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.668479</v>
+      </c>
+      <c r="H37">
+        <v>38.005437</v>
+      </c>
+      <c r="I37">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="J37">
+        <v>0.4441490950874473</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>46.36628199999999</v>
+      </c>
+      <c r="N37">
+        <v>139.098846</v>
+      </c>
+      <c r="O37">
+        <v>0.4467127743160336</v>
+      </c>
+      <c r="P37">
+        <v>0.4467127743160338</v>
+      </c>
+      <c r="Q37">
+        <v>587.3902698250779</v>
+      </c>
+      <c r="R37">
+        <v>5286.512428425702</v>
+      </c>
+      <c r="S37">
+        <v>0.1984070744764694</v>
+      </c>
+      <c r="T37">
+        <v>0.1984070744764695</v>
       </c>
     </row>
   </sheetData>
